--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7339587-A022-4BEA-9442-F7C7FBB8E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22116" windowHeight="7704"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="deepseek_csv_20250502_36d2fa (1)" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="deepseek_csv_20250502_36d2fa (1)" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\`Miyo\Downloads\deepseek_csv_20250502_36d2fa (1).txt" decimal="," thousands=" " comma="1">
       <textFields count="7">
         <textField/>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="148">
   <si>
     <t>Handicap</t>
   </si>
@@ -403,12 +409,90 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>employé de supermarché</t>
+  </si>
+  <si>
+    <t>femme de ménage</t>
+  </si>
+  <si>
+    <t>pacsé</t>
+  </si>
+  <si>
+    <t>sans activité</t>
+  </si>
+  <si>
+    <t>assistante maternelle</t>
+  </si>
+  <si>
+    <t>pacsée</t>
+  </si>
+  <si>
+    <t>graphiste</t>
+  </si>
+  <si>
+    <t>ouvrier</t>
+  </si>
+  <si>
+    <t>chef de projet</t>
+  </si>
+  <si>
+    <t>sans profession</t>
+  </si>
+  <si>
+    <t>coiffeur</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>cadre supérieur</t>
+  </si>
+  <si>
+    <t>serveuse</t>
+  </si>
+  <si>
+    <t>designer</t>
+  </si>
+  <si>
+    <t>en recherche d'emploi</t>
+  </si>
+  <si>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>jardinier</t>
+  </si>
+  <si>
+    <t>analyste</t>
+  </si>
+  <si>
+    <t>vétérinaire</t>
+  </si>
+  <si>
+    <t>aide ménagère</t>
+  </si>
+  <si>
+    <t>chef d'entreprise</t>
+  </si>
+  <si>
+    <t>boulanger</t>
+  </si>
+  <si>
+    <t>développeur</t>
+  </si>
+  <si>
+    <t>assistante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,15 +502,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -434,12 +524,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,18 +583,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="deepseek_csv_20250502_36d2fa (1)_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="deepseek_csv_20250502_36d2fa (1)_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -499,7 +635,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -571,7 +707,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -744,14 +880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B126" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -829,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>28</v>
@@ -1924,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="B51">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -3044,6 +3180,995 @@
       </c>
       <c r="G99" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="2">
+        <v>180000</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100" s="2">
+        <v>29</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="5">
+        <v>25000</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101" s="5">
+        <v>38</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="2">
+        <v>350000</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" s="2">
+        <v>42</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="5">
+        <v>15000</v>
+      </c>
+      <c r="C103" s="5">
+        <v>3</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" s="5">
+        <v>58</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="2">
+        <v>220000</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104" s="2">
+        <v>36</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="5">
+        <v>70</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="2">
+        <v>280000</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="5">
+        <v>30000</v>
+      </c>
+      <c r="C107" s="5">
+        <v>5</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" s="5">
+        <v>43</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="2">
+        <v>150000</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="2">
+        <v>31</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="5">
+        <v>67</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="2">
+        <v>400000</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F110" s="2">
+        <v>48</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="5">
+        <v>20000</v>
+      </c>
+      <c r="C111" s="5">
+        <v>4</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="5">
+        <v>41</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="2">
+        <v>175000</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112" s="2">
+        <v>34</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="5">
+        <v>90000</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="5">
+        <v>27</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="2">
+        <v>62</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="5">
+        <v>320000</v>
+      </c>
+      <c r="C115" s="5">
+        <v>2</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="5">
+        <v>39</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="2">
+        <v>12000</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" s="2">
+        <v>44</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="5">
+        <v>210000</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F117" s="5">
+        <v>33</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F118" s="2">
+        <v>71</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="5">
+        <v>275000</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F119" s="5">
+        <v>37</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" s="2">
+        <v>46</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="5">
+        <v>130000</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121" s="5">
+        <v>40</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="2">
+        <v>22</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="5">
+        <v>380000</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F123" s="5">
+        <v>51</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="2">
+        <v>22000</v>
+      </c>
+      <c r="C124" s="2">
+        <v>4</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F124" s="2">
+        <v>47</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="5">
+        <v>160000</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F125" s="5">
+        <v>30</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="2">
+        <v>68</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="5">
+        <v>290000</v>
+      </c>
+      <c r="C127" s="5">
+        <v>3</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F127" s="5">
+        <v>43</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F128" s="2">
+        <v>39</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="5">
+        <v>110000</v>
+      </c>
+      <c r="C129" s="5">
+        <v>1</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F129" s="5">
+        <v>35</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F130" s="2">
+        <v>25</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="5">
+        <v>240000</v>
+      </c>
+      <c r="C131" s="5">
+        <v>2</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" s="5">
+        <v>49</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F132" s="2">
+        <v>60</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="5">
+        <v>330000</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F133" s="5">
+        <v>28</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="2">
+        <v>17000</v>
+      </c>
+      <c r="C134" s="2">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" s="2">
+        <v>50</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="5">
+        <v>140000</v>
+      </c>
+      <c r="C135" s="5">
+        <v>1</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135" s="5">
+        <v>36</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F136" s="2">
+        <v>63</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="5">
+        <v>260000</v>
+      </c>
+      <c r="C137" s="5">
+        <v>3</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F137" s="5">
+        <v>52</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="2">
+        <v>13000</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F138" s="2">
+        <v>26</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="5">
+        <v>190000</v>
+      </c>
+      <c r="C139" s="5">
+        <v>1</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F139" s="5">
+        <v>31</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C140" s="2">
+        <v>4</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F140" s="2">
+        <v>42</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="5">
+        <v>370000</v>
+      </c>
+      <c r="C141" s="5">
+        <v>2</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F141" s="5">
+        <v>47</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="2">
+        <v>19000</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" s="2">
+        <v>59</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3052,24 +4177,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\`Miyo\Documents\Dev22\Fokontany\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7339587-A022-4BEA-9442-F7C7FBB8E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8754EB5-6CDD-4624-AFD6-FB349BC230C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="deepseek_csv_20250502_36d2fa__1__1" localSheetId="0">Feuil1!$A$1:$G$99</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,20 +52,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="149">
   <si>
     <t>Handicap</t>
   </si>
   <si>
-    <t>Enfant</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Activité</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -396,9 +399,6 @@
     <t>0.27</t>
   </si>
   <si>
-    <t>Revenu</t>
-  </si>
-  <si>
     <t>0.13</t>
   </si>
   <si>
@@ -487,6 +487,18 @@
   </si>
   <si>
     <t>assistante</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>0.90</t>
   </si>
 </sst>
 </file>
@@ -883,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B126" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,27 +922,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" t="b">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>450000</v>
@@ -939,21 +951,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" t="b">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>80000</v>
@@ -962,21 +974,21 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>120000</v>
@@ -985,21 +997,21 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1008,21 +1020,21 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>300000</v>
@@ -1031,21 +1043,21 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>50000</v>
@@ -1054,21 +1066,21 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>200000</v>
@@ -1077,21 +1089,21 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>150000</v>
@@ -1100,21 +1112,21 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>75000</v>
@@ -1123,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>25000</v>
@@ -1146,21 +1158,21 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>350000</v>
@@ -1169,44 +1181,44 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>180000</v>
@@ -1215,21 +1227,21 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>40000</v>
@@ -1238,21 +1250,21 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>500000</v>
@@ -1261,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>30000</v>
@@ -1284,21 +1296,21 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>220000</v>
@@ -1307,44 +1319,44 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
       </c>
       <c r="F19">
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>280000</v>
@@ -1353,21 +1365,21 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>60000</v>
@@ -1376,21 +1388,21 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>420000</v>
@@ -1399,21 +1411,21 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>90000</v>
@@ -1422,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>150000</v>
@@ -1445,21 +1457,21 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24">
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>35000</v>
@@ -1468,21 +1480,21 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>380000</v>
@@ -1491,21 +1503,21 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1514,21 +1526,21 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>90000</v>
@@ -1537,21 +1549,21 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F28">
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>55000</v>
@@ -1560,21 +1572,21 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>320000</v>
@@ -1583,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F30">
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>20000</v>
@@ -1606,21 +1618,21 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>270000</v>
@@ -1629,21 +1641,21 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>70000</v>
@@ -1652,21 +1664,21 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33">
         <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>410000</v>
@@ -1675,44 +1687,44 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
         <v>10</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
       </c>
       <c r="F35">
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>130000</v>
@@ -1721,21 +1733,21 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36">
         <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>45000</v>
@@ -1744,21 +1756,21 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37">
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>360000</v>
@@ -1767,21 +1779,21 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38">
         <v>53</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>10000</v>
@@ -1790,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>190000</v>
@@ -1813,21 +1825,21 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F40">
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>65000</v>
@@ -1836,21 +1848,21 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41">
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>440000</v>
@@ -1859,21 +1871,21 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42">
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1882,21 +1894,21 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>160000</v>
@@ -1905,21 +1917,21 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>30000</v>
@@ -1928,21 +1940,21 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45">
         <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>330000</v>
@@ -1951,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F46">
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47">
         <v>5000</v>
@@ -1974,21 +1986,21 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F47">
         <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>210000</v>
@@ -1997,21 +2009,21 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F48">
         <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>85000</v>
@@ -2020,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49">
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>470000</v>
@@ -2043,44 +2055,44 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F50">
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
         <v>10</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
       </c>
       <c r="F51">
         <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>140000</v>
@@ -2089,21 +2101,21 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F52">
         <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>40000</v>
@@ -2112,21 +2124,21 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>290000</v>
@@ -2135,21 +2147,21 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F54">
         <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>95000</v>
@@ -2158,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F55">
         <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>230000</v>
@@ -2181,21 +2193,21 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F56">
         <v>48</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2204,21 +2216,21 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>64</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>310000</v>
@@ -2227,21 +2239,21 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F58">
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>25000</v>
@@ -2250,21 +2262,21 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>170000</v>
@@ -2273,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F60">
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>60000</v>
@@ -2296,21 +2308,21 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F61">
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>400000</v>
@@ -2319,21 +2331,21 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F62">
         <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2342,21 +2354,21 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>110000</v>
@@ -2365,21 +2377,21 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F64">
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>35000</v>
@@ -2388,21 +2400,21 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F65">
         <v>53</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <v>340000</v>
@@ -2411,21 +2423,21 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F66">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>5000</v>
@@ -2434,21 +2446,21 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F67">
         <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B68">
         <v>240000</v>
@@ -2457,21 +2469,21 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F68">
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69">
         <v>70000</v>
@@ -2480,21 +2492,21 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F69">
         <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>430000</v>
@@ -2503,21 +2515,21 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F70">
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>20000</v>
@@ -2526,21 +2538,21 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71">
         <v>62</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>125000</v>
@@ -2549,21 +2561,21 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F72">
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>55000</v>
@@ -2572,21 +2584,21 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F73">
         <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B74">
         <v>370000</v>
@@ -2595,44 +2607,44 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F74">
         <v>54</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
         <v>10</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" t="s">
-        <v>12</v>
       </c>
       <c r="F75">
         <v>69</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>95000</v>
@@ -2641,21 +2653,21 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F76">
         <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77">
         <v>45000</v>
@@ -2664,21 +2676,21 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F77">
         <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B78">
         <v>260000</v>
@@ -2687,21 +2699,21 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F78">
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79">
         <v>10000</v>
@@ -2710,21 +2722,21 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F79">
         <v>63</v>
       </c>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B80">
         <v>135000</v>
@@ -2733,21 +2745,21 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F80">
         <v>44</v>
       </c>
       <c r="G80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B81">
         <v>60000</v>
@@ -2756,21 +2768,21 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F81">
         <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B82">
         <v>390000</v>
@@ -2779,44 +2791,44 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F82">
         <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
         <v>10</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
       </c>
       <c r="F83">
         <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B84">
         <v>145000</v>
@@ -2825,21 +2837,21 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F84">
         <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <v>30000</v>
@@ -2848,21 +2860,21 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <v>52</v>
       </c>
       <c r="G85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B86">
         <v>350000</v>
@@ -2871,21 +2883,21 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F86">
         <v>57</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B87">
         <v>5000</v>
@@ -2894,21 +2906,21 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F87">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B88">
         <v>155000</v>
@@ -2917,21 +2929,21 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F88">
         <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89">
         <v>75000</v>
@@ -2940,21 +2952,21 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F89">
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <v>460000</v>
@@ -2963,21 +2975,21 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F90">
         <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2986,21 +2998,21 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F91">
         <v>65</v>
       </c>
       <c r="G91" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <v>105000</v>
@@ -3009,21 +3021,21 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F92">
         <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B93">
         <v>40000</v>
@@ -3032,21 +3044,21 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F93">
         <v>53</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B94">
         <v>325000</v>
@@ -3055,21 +3067,21 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F94">
         <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B95">
         <v>15000</v>
@@ -3078,21 +3090,21 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F95">
         <v>58</v>
       </c>
       <c r="G95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B96">
         <v>195000</v>
@@ -3101,21 +3113,21 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F96">
         <v>51</v>
       </c>
       <c r="G96" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B97">
         <v>80000</v>
@@ -3124,21 +3136,21 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F97">
         <v>59</v>
       </c>
       <c r="G97" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B98">
         <v>480000</v>
@@ -3147,21 +3159,21 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F98">
         <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99">
         <v>20000</v>
@@ -3170,21 +3182,21 @@
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F99">
         <v>60</v>
       </c>
       <c r="G99" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B100" s="2">
         <v>180000</v>
@@ -3193,21 +3205,21 @@
         <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2">
         <v>29</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B101" s="5">
         <v>25000</v>
@@ -3216,21 +3228,21 @@
         <v>1</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F101" s="5">
         <v>38</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B102" s="2">
         <v>350000</v>
@@ -3239,21 +3251,21 @@
         <v>2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F102" s="2">
         <v>42</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B103" s="5">
         <v>15000</v>
@@ -3262,21 +3274,21 @@
         <v>3</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F103" s="5">
         <v>58</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B104" s="2">
         <v>220000</v>
@@ -3285,21 +3297,21 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2">
         <v>36</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
@@ -3308,21 +3320,21 @@
         <v>0</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F105" s="5">
         <v>70</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2">
         <v>280000</v>
@@ -3331,21 +3343,21 @@
         <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F106" s="2">
         <v>45</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B107" s="5">
         <v>30000</v>
@@ -3354,21 +3366,21 @@
         <v>5</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F107" s="5">
         <v>43</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B108" s="2">
         <v>150000</v>
@@ -3377,21 +3389,21 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F108" s="2">
         <v>31</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109" s="5">
         <v>10000</v>
@@ -3400,21 +3412,21 @@
         <v>2</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F109" s="5">
         <v>67</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B110" s="2">
         <v>400000</v>
@@ -3423,21 +3435,21 @@
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F110" s="2">
         <v>48</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B111" s="5">
         <v>20000</v>
@@ -3446,21 +3458,21 @@
         <v>4</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F111" s="5">
         <v>41</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B112" s="2">
         <v>175000</v>
@@ -3469,21 +3481,21 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F112" s="2">
         <v>34</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B113" s="5">
         <v>90000</v>
@@ -3492,21 +3504,21 @@
         <v>0</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F113" s="5">
         <v>27</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B114" s="2">
         <v>5000</v>
@@ -3515,21 +3527,21 @@
         <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F114" s="2">
         <v>62</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B115" s="5">
         <v>320000</v>
@@ -3538,21 +3550,21 @@
         <v>2</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F115" s="5">
         <v>39</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B116" s="2">
         <v>12000</v>
@@ -3561,21 +3573,21 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2">
         <v>44</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B117" s="5">
         <v>210000</v>
@@ -3584,21 +3596,21 @@
         <v>0</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F117" s="5">
         <v>33</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B118" s="2">
         <v>0</v>
@@ -3607,21 +3619,21 @@
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2">
         <v>71</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B119" s="5">
         <v>275000</v>
@@ -3630,21 +3642,21 @@
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F119" s="5">
         <v>37</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B120" s="2">
         <v>18000</v>
@@ -3653,21 +3665,21 @@
         <v>3</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2">
         <v>46</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B121" s="5">
         <v>130000</v>
@@ -3676,21 +3688,21 @@
         <v>2</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F121" s="5">
         <v>40</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B122" s="2">
         <v>7000</v>
@@ -3699,21 +3711,21 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F122" s="2">
         <v>22</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123" s="5">
         <v>380000</v>
@@ -3722,21 +3734,21 @@
         <v>0</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F123" s="5">
         <v>51</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B124" s="2">
         <v>22000</v>
@@ -3745,21 +3757,21 @@
         <v>4</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2">
         <v>47</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B125" s="5">
         <v>160000</v>
@@ -3768,21 +3780,21 @@
         <v>1</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F125" s="5">
         <v>30</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B126" s="2">
         <v>3000</v>
@@ -3791,21 +3803,21 @@
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F126" s="2">
         <v>68</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B127" s="5">
         <v>290000</v>
@@ -3814,21 +3826,21 @@
         <v>3</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F127" s="5">
         <v>43</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B128" s="2">
         <v>15000</v>
@@ -3837,21 +3849,21 @@
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F128" s="2">
         <v>39</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129" s="5">
         <v>110000</v>
@@ -3860,21 +3872,21 @@
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F129" s="5">
         <v>35</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B130" s="2">
         <v>0</v>
@@ -3883,21 +3895,21 @@
         <v>3</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F130" s="2">
         <v>25</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B131" s="5">
         <v>240000</v>
@@ -3906,21 +3918,21 @@
         <v>2</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F131" s="5">
         <v>49</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B132" s="2">
         <v>9000</v>
@@ -3929,21 +3941,21 @@
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F132" s="2">
         <v>60</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B133" s="5">
         <v>330000</v>
@@ -3952,21 +3964,21 @@
         <v>0</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F133" s="5">
         <v>28</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B134" s="2">
         <v>17000</v>
@@ -3975,21 +3987,21 @@
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2">
         <v>50</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B135" s="5">
         <v>140000</v>
@@ -3998,21 +4010,21 @@
         <v>1</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F135" s="5">
         <v>36</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B136" s="2">
         <v>4000</v>
@@ -4021,21 +4033,21 @@
         <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F136" s="2">
         <v>63</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B137" s="5">
         <v>260000</v>
@@ -4044,21 +4056,21 @@
         <v>3</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F137" s="5">
         <v>52</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B138" s="2">
         <v>13000</v>
@@ -4067,21 +4079,21 @@
         <v>0</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F138" s="2">
         <v>26</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B139" s="5">
         <v>190000</v>
@@ -4090,21 +4102,21 @@
         <v>1</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F139" s="5">
         <v>31</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B140" s="2">
         <v>1000</v>
@@ -4113,21 +4125,21 @@
         <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F140" s="2">
         <v>42</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B141" s="5">
         <v>370000</v>
@@ -4136,21 +4148,21 @@
         <v>2</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F141" s="5">
         <v>47</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B142" s="2">
         <v>19000</v>
@@ -4159,43 +4171,19 @@
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F142" s="2">
         <v>59</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>